--- a/Excel/08-05-2024.xlsx
+++ b/Excel/08-05-2024.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\Desktop\Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FDEF1D-1065-433B-9688-55157DCDFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1DF77442-2205-4F8D-A055-518A6537DF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D99AC89B-5694-44B5-95AF-8D5C54B7071A}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" xr2:uid="{D99AC89B-5694-44B5-95AF-8D5C54B7071A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -348,9 +344,6 @@
     <t>CORAGEN</t>
   </si>
   <si>
-    <t>10 ML</t>
-  </si>
-  <si>
     <t>0424IB9001</t>
   </si>
   <si>
@@ -727,6 +720,9 @@
   </si>
   <si>
     <t>2024-05-07 02:28:07.766637+00:00</t>
+  </si>
+  <si>
+    <t>10ML</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35BE3FF-1031-45E9-9051-1333FFCE9716}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,7 +1858,7 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="F14">
         <v>11006845</v>
@@ -1871,25 +1867,25 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
         <v>105</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>106</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>107</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>108</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>109</v>
       </c>
-      <c r="N14" t="s">
-        <v>110</v>
-      </c>
       <c r="O14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -1901,15 +1897,15 @@
         <v>44000</v>
       </c>
       <c r="V14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
         <v>112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>102</v>
@@ -1918,7 +1914,7 @@
         <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="F15">
         <v>11006845</v>
@@ -1927,25 +1923,25 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
         <v>105</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>106</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>107</v>
       </c>
-      <c r="K15" t="s">
-        <v>108</v>
-      </c>
       <c r="M15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" t="s">
         <v>114</v>
       </c>
-      <c r="N15" t="s">
-        <v>115</v>
-      </c>
       <c r="O15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -1957,24 +1953,24 @@
         <v>44000</v>
       </c>
       <c r="V15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="F16">
         <v>11006845</v>
@@ -1983,25 +1979,25 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
         <v>105</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>106</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>107</v>
       </c>
-      <c r="K16" t="s">
-        <v>108</v>
-      </c>
       <c r="M16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" t="s">
         <v>119</v>
       </c>
-      <c r="N16" t="s">
-        <v>120</v>
-      </c>
       <c r="O16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -2013,24 +2009,24 @@
         <v>44000</v>
       </c>
       <c r="V16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="F17">
         <v>11006845</v>
@@ -2039,25 +2035,25 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
         <v>105</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>106</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>107</v>
       </c>
-      <c r="K17" t="s">
-        <v>108</v>
-      </c>
       <c r="M17" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" t="s">
         <v>123</v>
       </c>
-      <c r="N17" t="s">
-        <v>124</v>
-      </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -2069,24 +2065,24 @@
         <v>44000</v>
       </c>
       <c r="V17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="F18">
         <v>11006845</v>
@@ -2095,25 +2091,25 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" t="s">
         <v>105</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>106</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>107</v>
       </c>
-      <c r="K18" t="s">
-        <v>108</v>
-      </c>
       <c r="M18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" t="s">
         <v>127</v>
       </c>
-      <c r="N18" t="s">
-        <v>128</v>
-      </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -2125,24 +2121,24 @@
         <v>44000</v>
       </c>
       <c r="V18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
         <v>129</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>130</v>
-      </c>
-      <c r="C19" t="s">
-        <v>131</v>
       </c>
       <c r="D19" t="s">
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="F19">
         <v>11006845</v>
@@ -2151,25 +2147,25 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s">
         <v>105</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>106</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>107</v>
       </c>
-      <c r="K19" t="s">
-        <v>108</v>
-      </c>
       <c r="M19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" t="s">
         <v>132</v>
       </c>
-      <c r="N19" t="s">
-        <v>133</v>
-      </c>
       <c r="O19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -2181,24 +2177,24 @@
         <v>44000</v>
       </c>
       <c r="V19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
         <v>134</v>
       </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="F20">
         <v>11006845</v>
@@ -2207,25 +2203,25 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
         <v>105</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>106</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>107</v>
       </c>
-      <c r="K20" t="s">
-        <v>108</v>
-      </c>
       <c r="M20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N20" t="s">
         <v>136</v>
       </c>
-      <c r="N20" t="s">
-        <v>137</v>
-      </c>
       <c r="O20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -2237,24 +2233,24 @@
         <v>44000</v>
       </c>
       <c r="V20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
         <v>138</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>139</v>
-      </c>
-      <c r="C21" t="s">
-        <v>140</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>11009402</v>
@@ -2263,7 +2259,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
         <v>70</v>
@@ -2272,16 +2268,16 @@
         <v>71</v>
       </c>
       <c r="K21" t="s">
+        <v>142</v>
+      </c>
+      <c r="M21" t="s">
         <v>143</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>144</v>
       </c>
-      <c r="N21" t="s">
-        <v>145</v>
-      </c>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -2293,24 +2289,24 @@
         <v>6408</v>
       </c>
       <c r="V21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
         <v>147</v>
       </c>
-      <c r="B22" t="s">
-        <v>148</v>
-      </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22">
         <v>11009402</v>
@@ -2319,7 +2315,7 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I22" t="s">
         <v>70</v>
@@ -2328,16 +2324,16 @@
         <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" t="s">
         <v>149</v>
       </c>
-      <c r="N22" t="s">
-        <v>150</v>
-      </c>
       <c r="O22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -2349,24 +2345,24 @@
         <v>6408</v>
       </c>
       <c r="V22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
         <v>151</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>152</v>
-      </c>
-      <c r="C23" t="s">
-        <v>153</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23">
         <v>11009402</v>
@@ -2375,7 +2371,7 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" t="s">
         <v>70</v>
@@ -2384,16 +2380,16 @@
         <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M23" t="s">
+        <v>153</v>
+      </c>
+      <c r="N23" t="s">
         <v>154</v>
       </c>
-      <c r="N23" t="s">
-        <v>155</v>
-      </c>
       <c r="O23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -2405,24 +2401,24 @@
         <v>6408</v>
       </c>
       <c r="V23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
         <v>156</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>157</v>
-      </c>
-      <c r="C24" t="s">
-        <v>158</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24">
         <v>11009402</v>
@@ -2431,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
         <v>70</v>
@@ -2440,16 +2436,16 @@
         <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M24" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" t="s">
         <v>159</v>
       </c>
-      <c r="N24" t="s">
-        <v>160</v>
-      </c>
       <c r="O24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -2461,24 +2457,24 @@
         <v>6408</v>
       </c>
       <c r="V24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
         <v>161</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>162</v>
-      </c>
-      <c r="C25" t="s">
-        <v>163</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25">
         <v>11009402</v>
@@ -2487,7 +2483,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I25" t="s">
         <v>70</v>
@@ -2496,16 +2492,16 @@
         <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s">
+        <v>163</v>
+      </c>
+      <c r="N25" t="s">
         <v>164</v>
       </c>
-      <c r="N25" t="s">
-        <v>165</v>
-      </c>
       <c r="O25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -2517,18 +2513,18 @@
         <v>6408</v>
       </c>
       <c r="V25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
         <v>166</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>167</v>
-      </c>
-      <c r="C26" t="s">
-        <v>168</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
@@ -2543,25 +2539,25 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" t="s">
         <v>169</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>170</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" t="s">
         <v>171</v>
       </c>
-      <c r="K26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>172</v>
       </c>
-      <c r="N26" t="s">
-        <v>173</v>
-      </c>
       <c r="O26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -2573,18 +2569,18 @@
         <v>5976</v>
       </c>
       <c r="V26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" t="s">
         <v>175</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>176</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
@@ -2599,25 +2595,25 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" t="s">
         <v>169</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>170</v>
       </c>
-      <c r="J27" t="s">
-        <v>171</v>
-      </c>
       <c r="K27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M27" t="s">
+        <v>177</v>
+      </c>
+      <c r="N27" t="s">
         <v>178</v>
       </c>
-      <c r="N27" t="s">
-        <v>179</v>
-      </c>
       <c r="O27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -2629,18 +2625,18 @@
         <v>5976</v>
       </c>
       <c r="V27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
         <v>180</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>181</v>
-      </c>
-      <c r="C28" t="s">
-        <v>182</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
@@ -2655,25 +2651,25 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" t="s">
         <v>169</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>170</v>
       </c>
-      <c r="J28" t="s">
-        <v>171</v>
-      </c>
       <c r="K28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s">
+        <v>182</v>
+      </c>
+      <c r="N28" t="s">
         <v>183</v>
       </c>
-      <c r="N28" t="s">
-        <v>184</v>
-      </c>
       <c r="O28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -2685,18 +2681,18 @@
         <v>5976</v>
       </c>
       <c r="V28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
         <v>185</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>186</v>
-      </c>
-      <c r="C29" t="s">
-        <v>187</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
@@ -2711,7 +2707,7 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I29" t="s">
         <v>29</v>
@@ -2720,16 +2716,16 @@
         <v>30</v>
       </c>
       <c r="K29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M29" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" t="s">
         <v>189</v>
       </c>
-      <c r="N29" t="s">
-        <v>190</v>
-      </c>
       <c r="O29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -2741,18 +2737,18 @@
         <v>5976</v>
       </c>
       <c r="V29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
         <v>191</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>192</v>
-      </c>
-      <c r="C30" t="s">
-        <v>193</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
@@ -2767,7 +2763,7 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I30" t="s">
         <v>29</v>
@@ -2776,16 +2772,16 @@
         <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M30" t="s">
+        <v>194</v>
+      </c>
+      <c r="N30" t="s">
         <v>195</v>
       </c>
-      <c r="N30" t="s">
-        <v>196</v>
-      </c>
       <c r="O30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -2797,18 +2793,18 @@
         <v>5976</v>
       </c>
       <c r="V30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s">
         <v>197</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>198</v>
-      </c>
-      <c r="C31" t="s">
-        <v>199</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
@@ -2823,7 +2819,7 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I31" t="s">
         <v>29</v>
@@ -2832,16 +2828,16 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M31" t="s">
+        <v>199</v>
+      </c>
+      <c r="N31" t="s">
         <v>200</v>
       </c>
-      <c r="N31" t="s">
-        <v>201</v>
-      </c>
       <c r="O31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
@@ -2853,18 +2849,18 @@
         <v>5976</v>
       </c>
       <c r="V31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>203</v>
-      </c>
-      <c r="C32" t="s">
-        <v>204</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
@@ -2879,7 +2875,7 @@
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I32" t="s">
         <v>70</v>
@@ -2888,16 +2884,16 @@
         <v>71</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M32" t="s">
+        <v>205</v>
+      </c>
+      <c r="N32" t="s">
         <v>206</v>
       </c>
-      <c r="N32" t="s">
-        <v>207</v>
-      </c>
       <c r="O32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -2909,18 +2905,18 @@
         <v>5976</v>
       </c>
       <c r="V32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
         <v>209</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>210</v>
-      </c>
-      <c r="C33" t="s">
-        <v>211</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
@@ -2935,7 +2931,7 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I33" t="s">
         <v>70</v>
@@ -2944,16 +2940,16 @@
         <v>71</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M33" t="s">
+        <v>211</v>
+      </c>
+      <c r="N33" t="s">
         <v>212</v>
       </c>
-      <c r="N33" t="s">
-        <v>213</v>
-      </c>
       <c r="O33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -2965,18 +2961,18 @@
         <v>5976</v>
       </c>
       <c r="V33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" t="s">
         <v>214</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>215</v>
-      </c>
-      <c r="C34" t="s">
-        <v>216</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
@@ -2991,7 +2987,7 @@
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I34" t="s">
         <v>29</v>
@@ -3000,16 +2996,16 @@
         <v>30</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M34" t="s">
+        <v>217</v>
+      </c>
+      <c r="N34" t="s">
         <v>218</v>
       </c>
-      <c r="N34" t="s">
-        <v>219</v>
-      </c>
       <c r="O34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -3021,18 +3017,18 @@
         <v>5976</v>
       </c>
       <c r="V34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" t="s">
         <v>220</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>221</v>
-      </c>
-      <c r="C35" t="s">
-        <v>222</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -3047,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I35" t="s">
         <v>29</v>
@@ -3056,16 +3052,16 @@
         <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M35" t="s">
+        <v>223</v>
+      </c>
+      <c r="N35" t="s">
         <v>224</v>
       </c>
-      <c r="N35" t="s">
-        <v>225</v>
-      </c>
       <c r="O35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -3077,18 +3073,18 @@
         <v>5976</v>
       </c>
       <c r="V35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" t="s">
         <v>226</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>227</v>
-      </c>
-      <c r="C36" t="s">
-        <v>228</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
@@ -3103,7 +3099,7 @@
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I36" t="s">
         <v>29</v>
@@ -3112,16 +3108,16 @@
         <v>30</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M36" t="s">
+        <v>228</v>
+      </c>
+      <c r="N36" t="s">
         <v>229</v>
       </c>
-      <c r="N36" t="s">
-        <v>230</v>
-      </c>
       <c r="O36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -3133,7 +3129,7 @@
         <v>5976</v>
       </c>
       <c r="V36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
